--- a/Test Data/Test Data.xlsx
+++ b/Test Data/Test Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Login Credentials" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>USERNAME</t>
   </si>
@@ -31,12 +31,15 @@
   <si>
     <t>Qatar@2021</t>
   </si>
+  <si>
+    <t>Doha@2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +55,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -61,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,18 +77,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,16 +414,69 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>2008</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>11700</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2168</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>88996</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>111880</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>11848</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>80197</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Data/Test Data.xlsx
+++ b/Test Data/Test Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login Credentials" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>USERNAME</t>
   </si>
@@ -33,13 +33,163 @@
   </si>
   <si>
     <t>Doha@2021</t>
+  </si>
+  <si>
+    <t>ACCOUNT_TYPE</t>
+  </si>
+  <si>
+    <t>SAVING_ACCOUNT_TYPE</t>
+  </si>
+  <si>
+    <t>QATARI</t>
+  </si>
+  <si>
+    <t>MONTHLY_INCOME</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>QID</t>
+  </si>
+  <si>
+    <t>PASSPORT</t>
+  </si>
+  <si>
+    <t>MOBILE_NUMBER</t>
+  </si>
+  <si>
+    <t>COMPANY_NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than QAR 10,000 </t>
+  </si>
+  <si>
+    <t>Grand Hamad Street</t>
+  </si>
+  <si>
+    <t>ACD XYZ</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAR 35,000+ </t>
+  </si>
+  <si>
+    <t>City Center Branch</t>
+  </si>
+  <si>
+    <t>abc xyz</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>Exceptional Savings Account Plus</t>
+  </si>
+  <si>
+    <t>QAR 10,000 - QAR 14,999</t>
+  </si>
+  <si>
+    <t>Al Rayyan Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAR 25,000 - QAR 34,999 </t>
+  </si>
+  <si>
+    <t>Doha Festival City Branch</t>
+  </si>
+  <si>
+    <t>MOHAMED</t>
+  </si>
+  <si>
+    <t>AMMAR</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>AHMED</t>
+  </si>
+  <si>
+    <t>Jassim</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Al Tamer</t>
+  </si>
+  <si>
+    <t>Mohamed@gmail.com</t>
+  </si>
+  <si>
+    <t>AliAhmed@gmail.com</t>
+  </si>
+  <si>
+    <t>Jassim@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahmed@gmail.com</t>
+  </si>
+  <si>
+    <t>As398589</t>
+  </si>
+  <si>
+    <t>Gm398678</t>
+  </si>
+  <si>
+    <t>Mj9878987</t>
+  </si>
+  <si>
+    <t>Dukhan</t>
+  </si>
+  <si>
+    <t>Barwa</t>
+  </si>
+  <si>
+    <t>Trivendram</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Faseel High Profit Savings Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +209,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +262,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -110,6 +273,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -395,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -484,13 +660,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="6">
+        <v>27848457575</v>
+      </c>
+      <c r="K2" s="10">
+        <v>984576856</v>
+      </c>
+      <c r="L2" s="7">
+        <v>89898989</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6">
+        <v>28738748723</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="7">
+        <v>98756898</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="6">
+        <v>28738748723</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="7">
+        <v>97383748</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="6">
+        <v>28738748723</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="7">
+        <v>87383748</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3:I5" r:id="rId1" display="skdsjkdjkj@gmail.com"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="I4" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Test Data/Test Data.xlsx
+++ b/Test Data/Test Data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Pre_Login" sheetId="2" r:id="rId2"/>
     <sheet name="My_Accounts" sheetId="3" r:id="rId3"/>
+    <sheet name="My_Cards" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>USERNAME</t>
   </si>
@@ -33,13 +34,199 @@
   </si>
   <si>
     <t>Doha@2021</t>
+  </si>
+  <si>
+    <t>CARD_TYPE</t>
+  </si>
+  <si>
+    <t>NAME_TO_APPEAR_ON_CARD</t>
+  </si>
+  <si>
+    <t>CARD_LIMIT</t>
+  </si>
+  <si>
+    <t>SELETE_MONTHLY_INCOME</t>
+  </si>
+  <si>
+    <t>DELIVERY_BRANCH</t>
+  </si>
+  <si>
+    <t>MONTHLY_PAYMENT</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>Grand Hamad Street</t>
+  </si>
+  <si>
+    <t>Al Rayyan Branch</t>
+  </si>
+  <si>
+    <t>International Master Card</t>
+  </si>
+  <si>
+    <t>International Visa Card</t>
+  </si>
+  <si>
+    <t>Master Card Creation</t>
+  </si>
+  <si>
+    <t>Visa Card Creation</t>
+  </si>
+  <si>
+    <t>Lost Card</t>
+  </si>
+  <si>
+    <t>****5487</t>
+  </si>
+  <si>
+    <t>****4833</t>
+  </si>
+  <si>
+    <t>Card Replacement</t>
+  </si>
+  <si>
+    <t>Stolen Card</t>
+  </si>
+  <si>
+    <t>Qatar@2024</t>
+  </si>
+  <si>
+    <t>CARD_NUMBER</t>
+  </si>
+  <si>
+    <t>ACTION_CONTROL</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>CHOOSE_CARD_TYPE</t>
+  </si>
+  <si>
+    <t>Credit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAR 15.000 - QAR 24.999 </t>
+  </si>
+  <si>
+    <t>Visa Card</t>
+  </si>
+  <si>
+    <t>Master Card</t>
+  </si>
+  <si>
+    <t>QAR 35.000+</t>
+  </si>
+  <si>
+    <t>Full Payment</t>
+  </si>
+  <si>
+    <t>Minimum Payment 5%</t>
+  </si>
+  <si>
+    <t>Faseel</t>
+  </si>
+  <si>
+    <t>Current100000010084</t>
+  </si>
+  <si>
+    <t>Faseel200000026211</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>SELECT_DEBIT_ACCOUNT_DETAILS</t>
+  </si>
+  <si>
+    <t>CURRENCY_TYPE</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Current100000975475</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>OPEN_ACCOUNT_TYPE</t>
+  </si>
+  <si>
+    <t>Exceptional Saving</t>
+  </si>
+  <si>
+    <t>Exceptional Savings Plus</t>
+  </si>
+  <si>
+    <t>SELECT_ACCOUNT_TYPE</t>
+  </si>
+  <si>
+    <t>Saving 200000328809</t>
+  </si>
+  <si>
+    <t>Saving 200000722531</t>
+  </si>
+  <si>
+    <t>Current 100000975475</t>
+  </si>
+  <si>
+    <t>Exceptional Savings200000408457</t>
+  </si>
+  <si>
+    <t>Current100000010916</t>
+  </si>
+  <si>
+    <t>NEW_PIN</t>
+  </si>
+  <si>
+    <t>CONFIRM_PIN</t>
+  </si>
+  <si>
+    <t>****3809</t>
+  </si>
+  <si>
+    <t>IS_CARD_ACTIVATION</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CARD_USAGE_LIMIT</t>
+  </si>
+  <si>
+    <t>****5237</t>
+  </si>
+  <si>
+    <t>****9612</t>
+  </si>
+  <si>
+    <t>SELECT_COUNTRY_NAME</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>****0631</t>
+  </si>
+  <si>
+    <t>****2789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +247,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,14 +305,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -110,12 +335,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal_My_Cards" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -496,12 +739,483 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2008</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>120000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>150000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>111880</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>135000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>111880</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>100000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>111880</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>88996</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>111880</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>111880</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>2168</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7">
+        <v>25000</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2168</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7">
+        <v>30000</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>111880</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1212</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>1212</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>111880</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5">
+        <v>1212</v>
+      </c>
+      <c r="Q5">
+        <v>1212</v>
+      </c>
+      <c r="S5">
+        <v>70000</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>111880</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6">
+        <v>50000</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>111880</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>111880</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>111880</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>